--- a/mapping/BAO_OSMO.xlsx
+++ b/mapping/BAO_OSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BAO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>OSMO_DESC</t>
   </si>
   <si>
+    <t>OSMO_DEF</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003119</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>{'name': 'software'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -408,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,22 +433,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
